--- a/file/city_excel/ha_noi.xlsx
+++ b/file/city_excel/ha_noi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\export_city\file\city_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1D580B-B685-414B-ABEF-90D331AE8E4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9C23DA-926C-4014-B862-812BF2117ABA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12850" xr2:uid="{E21246A8-F6FA-46FE-A28D-21F9F6479E1A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="1181">
   <si>
     <t>STT</t>
   </si>
@@ -3565,6 +3565,9 @@
   </si>
   <si>
     <t>Quận_Long_Biên</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -4019,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5390259E-E80A-4571-9C51-E500839A04AF}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="E601" sqref="E601"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4040,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1180</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
